--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2529066.077353505</v>
+        <v>2526859.983947068</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7094780.682604729</v>
+        <v>7094780.68260473</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9501226.076906722</v>
+        <v>9501226.07690672</v>
       </c>
     </row>
     <row r="11">
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>242.2265454780083</v>
+        <v>414.0301000117425</v>
       </c>
       <c r="H2" t="n">
         <v>326.4414032841482</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>161.4125322208646</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.92680236866728</v>
+        <v>69.9268023686673</v>
       </c>
       <c r="S2" t="n">
-        <v>180.0198424776875</v>
+        <v>180.0198424776876</v>
       </c>
       <c r="T2" t="n">
         <v>217.5248788930305</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>36.51501392387022</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -747,13 +747,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>94.51488874492362</v>
       </c>
       <c r="G3" t="n">
-        <v>69.68308100927273</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105.6591799828218</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>65.95263903154863</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.88099638015529</v>
+        <v>57.8809963801553</v>
       </c>
       <c r="S3" t="n">
         <v>159.035360425222</v>
@@ -792,7 +792,7 @@
         <v>197.4201388450818</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8965846405547</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>64.92574079224043</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>64.68078382579776</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4201179865476</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>52.99928112255616</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.5064544755703</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,7 +902,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1.332975795529264</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>278.4190107396781</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -990,7 +990,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I6" t="n">
         <v>61.42221998250818</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>155.4526127311942</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>83.59830597394826</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>268.3528239515853</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>33.89556121672312</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>43.31785343913975</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>47.36189168600521</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>15.0743711067585</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1585,16 +1585,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>51.3885308151377</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>78.52789638094404</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>177.0235731432471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1859,10 +1859,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873199</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>140.9031752657903</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>154.3165013472139</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2096,10 +2096,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873199</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>29.29900410170916</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2293,10 +2293,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>13.89072837997149</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,16 +2533,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>51.00672667166882</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>100.6473311491954</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>84.69473660442824</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>263.6547609724003</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>173.6268892744755</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>195.7164159879039</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>16.03808929158294</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>7.077413255851329</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3247,13 +3247,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>347.2384253774349</v>
+        <v>347.2384253774347</v>
       </c>
       <c r="C35" t="n">
-        <v>329.7774754849618</v>
+        <v>329.7774754849617</v>
       </c>
       <c r="D35" t="n">
-        <v>319.1876253346372</v>
+        <v>319.1876253346371</v>
       </c>
       <c r="E35" t="n">
-        <v>346.4349537862161</v>
+        <v>346.4349537862159</v>
       </c>
       <c r="F35" t="n">
-        <v>371.3806294556657</v>
+        <v>371.3806294556656</v>
       </c>
       <c r="G35" t="n">
-        <v>375.4263093674077</v>
+        <v>375.4263093674076</v>
       </c>
       <c r="H35" t="n">
-        <v>259.1123481012747</v>
+        <v>259.1123481012746</v>
       </c>
       <c r="I35" t="n">
-        <v>6.081513486880198</v>
+        <v>6.081513486880127</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>73.69234550213008</v>
+        <v>73.69234550213002</v>
       </c>
       <c r="T35" t="n">
-        <v>168.4225538535744</v>
+        <v>168.4225538535743</v>
       </c>
       <c r="U35" t="n">
         <v>215.4997556728562</v>
@@ -3326,13 +3326,13 @@
         <v>292.2568421840891</v>
       </c>
       <c r="W35" t="n">
-        <v>313.7455524313673</v>
+        <v>313.7455524313672</v>
       </c>
       <c r="X35" t="n">
-        <v>334.2356843924233</v>
+        <v>334.2356843924232</v>
       </c>
       <c r="Y35" t="n">
-        <v>350.7425223700078</v>
+        <v>350.7425223700077</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247741</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>144.3365638958915</v>
       </c>
       <c r="C37" t="n">
-        <v>42.11922129852378</v>
+        <v>131.751404812582</v>
       </c>
       <c r="D37" t="n">
-        <v>113.1200567321666</v>
+        <v>113.1200567321665</v>
       </c>
       <c r="E37" t="n">
-        <v>110.9385463605234</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>109.9256317368855</v>
+        <v>109.9256317368854</v>
       </c>
       <c r="G37" t="n">
-        <v>130.5303919729825</v>
+        <v>130.5303919729824</v>
       </c>
       <c r="H37" t="n">
-        <v>109.259598628275</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>60.85700412379234</v>
+        <v>7.369432608410223</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>53.43673638400158</v>
+        <v>53.43673638400149</v>
       </c>
       <c r="S37" t="n">
         <v>154.2736090453961</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>184.0535329901234</v>
       </c>
       <c r="U37" t="n">
-        <v>250.7164219195671</v>
+        <v>250.716421919567</v>
       </c>
       <c r="V37" t="n">
         <v>216.6422270377822</v>
@@ -3487,7 +3487,7 @@
         <v>251.0275820505452</v>
       </c>
       <c r="X37" t="n">
-        <v>190.2142391029914</v>
+        <v>190.2142391029913</v>
       </c>
       <c r="Y37" t="n">
         <v>183.089237066049</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>347.2384253774349</v>
+        <v>347.2384253774348</v>
       </c>
       <c r="C38" t="n">
         <v>329.7774754849618</v>
@@ -3509,10 +3509,10 @@
         <v>319.1876253346372</v>
       </c>
       <c r="E38" t="n">
-        <v>346.4349537862161</v>
+        <v>346.434953786216</v>
       </c>
       <c r="F38" t="n">
-        <v>371.3806294556661</v>
+        <v>371.3806294556657</v>
       </c>
       <c r="G38" t="n">
         <v>375.4263093674077</v>
@@ -3521,7 +3521,7 @@
         <v>259.1123481012747</v>
       </c>
       <c r="I38" t="n">
-        <v>6.081513486880198</v>
+        <v>6.081513486880162</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>73.69234550213008</v>
+        <v>73.69234550213005</v>
       </c>
       <c r="T38" t="n">
         <v>168.4225538535744</v>
@@ -3563,7 +3563,7 @@
         <v>292.2568421840891</v>
       </c>
       <c r="W38" t="n">
-        <v>313.7455524313673</v>
+        <v>313.7455524313672</v>
       </c>
       <c r="X38" t="n">
         <v>334.2356843924233</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>144.3365638958915</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>131.7514048125821</v>
@@ -3673,13 +3673,13 @@
         <v>109.9256317368855</v>
       </c>
       <c r="G40" t="n">
-        <v>130.5303919729825</v>
+        <v>130.5303919729824</v>
       </c>
       <c r="H40" t="n">
-        <v>109.259598628275</v>
+        <v>40.76745014377758</v>
       </c>
       <c r="I40" t="n">
-        <v>60.85700412379234</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>53.43673638400158</v>
+        <v>53.43673638400155</v>
       </c>
       <c r="S40" t="n">
         <v>154.2736090453961</v>
@@ -3724,10 +3724,10 @@
         <v>251.0275820505452</v>
       </c>
       <c r="X40" t="n">
-        <v>99.61775966485874</v>
+        <v>190.2142391029914</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>183.089237066049</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>347.2384253774349</v>
+        <v>347.2384253774348</v>
       </c>
       <c r="C41" t="n">
         <v>329.7774754849618</v>
@@ -3746,7 +3746,7 @@
         <v>319.1876253346372</v>
       </c>
       <c r="E41" t="n">
-        <v>346.4349537862161</v>
+        <v>346.434953786216</v>
       </c>
       <c r="F41" t="n">
         <v>371.3806294556657</v>
@@ -3758,7 +3758,7 @@
         <v>259.1123481012747</v>
       </c>
       <c r="I41" t="n">
-        <v>6.081513486880198</v>
+        <v>6.081513486880169</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>73.69234550213008</v>
+        <v>73.69234550213005</v>
       </c>
       <c r="T41" t="n">
         <v>168.4225538535744</v>
@@ -3797,10 +3797,10 @@
         <v>215.4997556728562</v>
       </c>
       <c r="V41" t="n">
-        <v>292.2568421840895</v>
+        <v>292.25684218409</v>
       </c>
       <c r="W41" t="n">
-        <v>313.7455524313673</v>
+        <v>313.7455524313672</v>
       </c>
       <c r="X41" t="n">
         <v>334.2356843924233</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>144.3365638958915</v>
       </c>
       <c r="C43" t="n">
-        <v>111.6618508325669</v>
+        <v>131.7514048125821</v>
       </c>
       <c r="D43" t="n">
-        <v>113.1200567321666</v>
+        <v>58.61957059314585</v>
       </c>
       <c r="E43" t="n">
         <v>110.9385463605234</v>
       </c>
       <c r="F43" t="n">
-        <v>109.9256317368855</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>130.5303919729825</v>
+        <v>130.5303919729824</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>60.85700412379234</v>
+        <v>60.85700412379231</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>53.43673638400158</v>
+        <v>53.43673638400155</v>
       </c>
       <c r="S43" t="n">
         <v>154.2736090453961</v>
@@ -3995,7 +3995,7 @@
         <v>259.1123481012747</v>
       </c>
       <c r="I44" t="n">
-        <v>6.081513486880183</v>
+        <v>6.081513486880169</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>73.69234550213007</v>
+        <v>73.69234550213005</v>
       </c>
       <c r="T44" t="n">
         <v>168.4225538535744</v>
       </c>
       <c r="U44" t="n">
-        <v>215.4997556728562</v>
+        <v>215.4997556728569</v>
       </c>
       <c r="V44" t="n">
         <v>292.2568421840891</v>
@@ -4135,19 +4135,19 @@
         <v>144.3365638958915</v>
       </c>
       <c r="C46" t="n">
-        <v>29.8612387927168</v>
+        <v>131.7514048125821</v>
       </c>
       <c r="D46" t="n">
         <v>113.1200567321666</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F46" t="n">
-        <v>109.9256317368855</v>
+        <v>27.62731132947921</v>
       </c>
       <c r="G46" t="n">
-        <v>130.5303919729825</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>109.259598628275</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>629.6153250609434</v>
+        <v>966.1972308736695</v>
       </c>
       <c r="C2" t="n">
-        <v>629.6153250609434</v>
+        <v>966.1972308736695</v>
       </c>
       <c r="D2" t="n">
-        <v>629.6153250609434</v>
+        <v>966.1972308736695</v>
       </c>
       <c r="E2" t="n">
-        <v>629.6153250609434</v>
+        <v>966.1972308736695</v>
       </c>
       <c r="F2" t="n">
-        <v>622.6698243117399</v>
+        <v>959.251730124466</v>
       </c>
       <c r="G2" t="n">
-        <v>377.9965460511254</v>
+        <v>541.0395078903827</v>
       </c>
       <c r="H2" t="n">
-        <v>48.25775485501619</v>
+        <v>211.3007166942733</v>
       </c>
       <c r="I2" t="n">
         <v>48.25775485501619</v>
@@ -4331,7 +4331,7 @@
         <v>143.3613405244778</v>
       </c>
       <c r="K2" t="n">
-        <v>406.6417666293488</v>
+        <v>406.6417666293489</v>
       </c>
       <c r="L2" t="n">
         <v>785.5410436024613</v>
@@ -4370,10 +4370,10 @@
         <v>1003.081083322023</v>
       </c>
       <c r="X2" t="n">
-        <v>629.6153250609434</v>
+        <v>966.1972308736695</v>
       </c>
       <c r="Y2" t="n">
-        <v>629.6153250609434</v>
+        <v>966.1972308736695</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>921.1494290220692</v>
+        <v>692.9710606982765</v>
       </c>
       <c r="C3" t="n">
-        <v>746.6963997409422</v>
+        <v>518.5180314171495</v>
       </c>
       <c r="D3" t="n">
-        <v>597.7619900796909</v>
+        <v>369.5836217558982</v>
       </c>
       <c r="E3" t="n">
-        <v>438.5245350742354</v>
+        <v>210.3461667504427</v>
       </c>
       <c r="F3" t="n">
-        <v>291.9899771011204</v>
+        <v>114.8765821596108</v>
       </c>
       <c r="G3" t="n">
-        <v>221.6030265867035</v>
+        <v>114.8765821596108</v>
       </c>
       <c r="H3" t="n">
         <v>114.8765821596108</v>
@@ -4407,25 +4407,25 @@
         <v>48.25775485501619</v>
       </c>
       <c r="J3" t="n">
-        <v>48.25775485501619</v>
+        <v>111.2074192719579</v>
       </c>
       <c r="K3" t="n">
-        <v>282.4696009334094</v>
+        <v>345.4192653503511</v>
       </c>
       <c r="L3" t="n">
-        <v>658.800727809652</v>
+        <v>721.7503922265937</v>
       </c>
       <c r="M3" t="n">
-        <v>1149.940624122022</v>
+        <v>1212.890288538964</v>
       </c>
       <c r="N3" t="n">
-        <v>1669.786545444865</v>
+        <v>1536.93233298718</v>
       </c>
       <c r="O3" t="n">
-        <v>2078.928325059889</v>
+        <v>1946.074112602204</v>
       </c>
       <c r="P3" t="n">
-        <v>2390.297606099998</v>
+        <v>2257.443393642313</v>
       </c>
       <c r="Q3" t="n">
         <v>2412.88774275081</v>
@@ -4440,19 +4440,19 @@
         <v>1994.366029972568</v>
       </c>
       <c r="U3" t="n">
-        <v>1994.366029972568</v>
+        <v>1766.187661648775</v>
       </c>
       <c r="V3" t="n">
-        <v>1759.213921740826</v>
+        <v>1531.035553417033</v>
       </c>
       <c r="W3" t="n">
-        <v>1504.976565012624</v>
+        <v>1276.798196688831</v>
       </c>
       <c r="X3" t="n">
-        <v>1297.125064807091</v>
+        <v>1068.946696483298</v>
       </c>
       <c r="Y3" t="n">
-        <v>1089.364766042137</v>
+        <v>861.1863977183446</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>631.0407786978465</v>
+        <v>48.25775485501619</v>
       </c>
       <c r="C4" t="n">
-        <v>631.0407786978465</v>
+        <v>48.25775485501619</v>
       </c>
       <c r="D4" t="n">
-        <v>565.7066536212831</v>
+        <v>48.25775485501619</v>
       </c>
       <c r="E4" t="n">
-        <v>417.79356003889</v>
+        <v>48.25775485501619</v>
       </c>
       <c r="F4" t="n">
-        <v>270.9036125409796</v>
+        <v>48.25775485501619</v>
       </c>
       <c r="G4" t="n">
-        <v>101.7923822515376</v>
+        <v>48.25775485501619</v>
       </c>
       <c r="H4" t="n">
-        <v>101.7923822515376</v>
+        <v>48.25775485501619</v>
       </c>
       <c r="I4" t="n">
-        <v>101.7923822515376</v>
+        <v>48.25775485501619</v>
       </c>
       <c r="J4" t="n">
         <v>48.25775485501619</v>
       </c>
       <c r="K4" t="n">
-        <v>91.87143294460989</v>
+        <v>91.87143294460986</v>
       </c>
       <c r="L4" t="n">
         <v>203.2083598384339</v>
       </c>
       <c r="M4" t="n">
-        <v>330.986661753428</v>
+        <v>330.9866617534279</v>
       </c>
       <c r="N4" t="n">
         <v>461.1612976692842</v>
       </c>
       <c r="O4" t="n">
-        <v>565.3823477984513</v>
+        <v>565.3823477984512</v>
       </c>
       <c r="P4" t="n">
-        <v>631.0407786978465</v>
+        <v>631.0407786978462</v>
       </c>
       <c r="Q4" t="n">
-        <v>631.0407786978465</v>
+        <v>631.0407786978462</v>
       </c>
       <c r="R4" t="n">
-        <v>631.0407786978465</v>
+        <v>631.0407786978462</v>
       </c>
       <c r="S4" t="n">
-        <v>631.0407786978465</v>
+        <v>631.0407786978462</v>
       </c>
       <c r="T4" t="n">
-        <v>631.0407786978465</v>
+        <v>403.2564812477752</v>
       </c>
       <c r="U4" t="n">
-        <v>631.0407786978465</v>
+        <v>403.2564812477752</v>
       </c>
       <c r="V4" t="n">
-        <v>631.0407786978465</v>
+        <v>403.2564812477752</v>
       </c>
       <c r="W4" t="n">
-        <v>631.0407786978465</v>
+        <v>113.8393112108146</v>
       </c>
       <c r="X4" t="n">
-        <v>631.0407786978465</v>
+        <v>113.8393112108146</v>
       </c>
       <c r="Y4" t="n">
-        <v>631.0407786978465</v>
+        <v>113.8393112108146</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1919.063478780785</v>
+        <v>1359.546482223454</v>
       </c>
       <c r="C5" t="n">
-        <v>1550.100961840373</v>
+        <v>990.5839652830421</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2695.802650820718</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2695.802650820718</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2695.802650820718</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2695.802650820718</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V5" t="n">
-        <v>2695.802650820718</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="W5" t="n">
-        <v>2695.802650820718</v>
+        <v>1640.777806202927</v>
       </c>
       <c r="X5" t="n">
-        <v>2695.802650820718</v>
+        <v>1640.777806202927</v>
       </c>
       <c r="Y5" t="n">
-        <v>2305.663318844906</v>
+        <v>1359.546482223454</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4689,7 +4689,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>210.9658229629848</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>210.9658229629848</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>210.9658229629848</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>210.9658229629848</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>210.9658229629848</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X7" t="n">
-        <v>210.9658229629848</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>210.9658229629848</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>898.8784838925781</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="C8" t="n">
-        <v>898.8784838925781</v>
+        <v>903.3817252132462</v>
       </c>
       <c r="D8" t="n">
-        <v>898.8784838925781</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E8" t="n">
-        <v>513.0902312943338</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>102.1043265047262</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>88.1809224433171</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>88.1809224433171</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4844,10 +4844,10 @@
         <v>1662.48357412947</v>
       </c>
       <c r="X8" t="n">
-        <v>1289.01781586839</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y8" t="n">
-        <v>898.8784838925781</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4896,10 +4896,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084169</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5036,49 +5036,49 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>907.902424901197</v>
       </c>
       <c r="L11" t="n">
-        <v>1586.925993846823</v>
+        <v>1772.421240554552</v>
       </c>
       <c r="M11" t="n">
-        <v>2120.457898518747</v>
+        <v>2750.97154338438</v>
       </c>
       <c r="N11" t="n">
-        <v>2667.23671557753</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O11" t="n">
-        <v>3547.201365906984</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5109,19 +5109,19 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L12" t="n">
         <v>794.2006632320245</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>822.6328654632896</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C13" t="n">
-        <v>653.6966825353827</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D13" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384227</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>1112.05003550025</v>
+        <v>999.1036114208125</v>
       </c>
       <c r="W13" t="n">
-        <v>822.6328654632896</v>
+        <v>709.6864413838518</v>
       </c>
       <c r="X13" t="n">
-        <v>822.6328654632896</v>
+        <v>481.6968904858345</v>
       </c>
       <c r="Y13" t="n">
-        <v>822.6328654632896</v>
+        <v>260.9043113423044</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5276,28 +5276,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>848.0509105096028</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1299.085123758011</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>1832.617028429936</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>2812.369300656582</v>
       </c>
       <c r="O14" t="n">
-        <v>3944.053400686433</v>
+        <v>3692.333950986037</v>
       </c>
       <c r="P14" t="n">
-        <v>4338.827767043611</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R14" t="n">
         <v>4778.05172241972</v>
@@ -5318,10 +5318,10 @@
         <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5388,7 +5388,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>343.0033510423848</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C16" t="n">
-        <v>343.0033510423848</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D16" t="n">
-        <v>192.886711630049</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E16" t="n">
-        <v>192.886711630049</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F16" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G16" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H16" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839441</v>
@@ -5437,7 +5437,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U16" t="n">
-        <v>1475.554715057173</v>
+        <v>1373.739401803084</v>
       </c>
       <c r="V16" t="n">
-        <v>1220.870226851286</v>
+        <v>1119.054913597198</v>
       </c>
       <c r="W16" t="n">
-        <v>931.4530568143257</v>
+        <v>1119.054913597198</v>
       </c>
       <c r="X16" t="n">
-        <v>703.4635059163083</v>
+        <v>891.0653626991802</v>
       </c>
       <c r="Y16" t="n">
-        <v>524.6518158726245</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,28 +5513,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>416.1091927888612</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>1070.832524924161</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L17" t="n">
-        <v>1521.86673817257</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M17" t="n">
-        <v>2055.398642844494</v>
+        <v>2628.734306600802</v>
       </c>
       <c r="N17" t="n">
-        <v>2602.177459903276</v>
+        <v>3254.420735780953</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232731</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
         <v>4778.05172241972</v>
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089893</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>413.380510486011</v>
+        <v>559.3002584566048</v>
       </c>
       <c r="C19" t="n">
-        <v>413.380510486011</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D19" t="n">
-        <v>263.2638710736753</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736753</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736753</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839441</v>
@@ -5671,52 +5671,52 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442062</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1622.331142269115</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U19" t="n">
-        <v>1333.228275394759</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1333.228275394759</v>
+        <v>1008.082388498152</v>
       </c>
       <c r="W19" t="n">
-        <v>1043.811105357798</v>
+        <v>1008.082388498152</v>
       </c>
       <c r="X19" t="n">
-        <v>815.8215544597808</v>
+        <v>780.0928376001349</v>
       </c>
       <c r="Y19" t="n">
-        <v>595.0289753162507</v>
+        <v>559.3002584566048</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>284.44016540742</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427196</v>
+        <v>1002.806306216375</v>
       </c>
       <c r="L20" t="n">
-        <v>1521.866738172569</v>
+        <v>1453.840519464783</v>
       </c>
       <c r="M20" t="n">
-        <v>2055.398642844494</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N20" t="n">
-        <v>2602.177459903276</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O20" t="n">
         <v>3482.142110232731</v>
@@ -5786,16 +5786,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>515.5887995481918</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C22" t="n">
-        <v>515.5887995481918</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D22" t="n">
-        <v>515.5887995481918</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E22" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839441</v>
@@ -5914,46 +5914,46 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
         <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.73316995219</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.7880996267</v>
+        <v>1439.029470490936</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.7880996267</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W22" t="n">
-        <v>964.3709295897393</v>
+        <v>894.9278122480885</v>
       </c>
       <c r="X22" t="n">
-        <v>736.3813786917219</v>
+        <v>666.9382613500711</v>
       </c>
       <c r="Y22" t="n">
-        <v>515.5887995481918</v>
+        <v>446.145682206541</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5987,52 +5987,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>416.1091927888621</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N23" t="n">
-        <v>3070.887536710053</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O23" t="n">
-        <v>3573.86000758939</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4287.215095036336</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>413.3805104860112</v>
+        <v>659.8526275526848</v>
       </c>
       <c r="C25" t="n">
-        <v>413.3805104860112</v>
+        <v>490.9164446247779</v>
       </c>
       <c r="D25" t="n">
-        <v>263.2638710736754</v>
+        <v>340.7998052124422</v>
       </c>
       <c r="E25" t="n">
-        <v>263.2638710736754</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6160,7 +6160,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
@@ -6181,16 +6181,16 @@
         <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1112.435696251229</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W25" t="n">
-        <v>823.0185262142683</v>
+        <v>1062.293671526455</v>
       </c>
       <c r="X25" t="n">
-        <v>595.0289753162509</v>
+        <v>1062.293671526455</v>
       </c>
       <c r="Y25" t="n">
-        <v>595.0289753162509</v>
+        <v>841.5010923829245</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6200,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>3163.468180669545</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3666.440651548882</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4379.795738995828</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6257,19 +6257,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6306,10 +6306,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>181.1112734427664</v>
+        <v>432.2000540015824</v>
       </c>
       <c r="C28" t="n">
-        <v>181.1112734427663</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="D28" t="n">
-        <v>181.1112734427664</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6388,7 +6388,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6421,13 +6421,13 @@
         <v>1100.959038351514</v>
       </c>
       <c r="W28" t="n">
-        <v>811.5418683145535</v>
+        <v>834.6410979753523</v>
       </c>
       <c r="X28" t="n">
-        <v>583.5523174165362</v>
+        <v>834.6410979753523</v>
       </c>
       <c r="Y28" t="n">
-        <v>362.7597382730061</v>
+        <v>613.8485188318222</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6464,22 +6464,22 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>1832.617028429936</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q29" t="n">
         <v>4653.975400188666</v>
@@ -6488,25 +6488,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6543,10 +6543,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>432.2000540015824</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6619,10 +6619,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6640,31 +6640,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1780.96276986786</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.196154437386</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>811.5418683145533</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>613.848518831822</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>613.8485188318222</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1237.706702364128</v>
+        <v>1784.466183544591</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193957</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420604</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>674.356810945952</v>
+        <v>582.3166934139181</v>
       </c>
       <c r="C34" t="n">
-        <v>505.4206280180451</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="D34" t="n">
-        <v>355.3039886057094</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E34" t="n">
-        <v>355.3039886057094</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F34" t="n">
-        <v>355.3039886057094</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6880,28 +6880,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1949.194563826066</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1757.508679652892</v>
       </c>
       <c r="T34" t="n">
-        <v>1956.343466104704</v>
+        <v>1535.742064222418</v>
       </c>
       <c r="U34" t="n">
-        <v>1667.240599230347</v>
+        <v>1246.639197348062</v>
       </c>
       <c r="V34" t="n">
-        <v>1412.55611102446</v>
+        <v>991.9547091421751</v>
       </c>
       <c r="W34" t="n">
-        <v>1123.1389409875</v>
+        <v>991.9547091421751</v>
       </c>
       <c r="X34" t="n">
-        <v>895.1493900894822</v>
+        <v>763.9651582441578</v>
       </c>
       <c r="Y34" t="n">
-        <v>674.356810945952</v>
+        <v>763.9651582441578</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2112.26296501002</v>
+        <v>2112.262965010019</v>
       </c>
       <c r="C35" t="n">
-        <v>1779.154403914099</v>
+        <v>1779.154403914098</v>
       </c>
       <c r="D35" t="n">
         <v>1456.742661151839</v>
       </c>
       <c r="E35" t="n">
-        <v>1106.808364398086</v>
+        <v>1106.808364398085</v>
       </c>
       <c r="F35" t="n">
-        <v>731.6764154529687</v>
+        <v>731.6764154529681</v>
       </c>
       <c r="G35" t="n">
-        <v>352.4579211424555</v>
+        <v>352.4579211424552</v>
       </c>
       <c r="H35" t="n">
-        <v>90.7282765957134</v>
+        <v>90.72827659571328</v>
       </c>
       <c r="I35" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="J35" t="n">
-        <v>440.8701136590512</v>
+        <v>273.4644646386982</v>
       </c>
       <c r="K35" t="n">
-        <v>774.6894873488977</v>
+        <v>607.2838383285447</v>
       </c>
       <c r="L35" t="n">
-        <v>1225.723700597307</v>
+        <v>1471.802653981899</v>
       </c>
       <c r="M35" t="n">
-        <v>2204.274003427135</v>
+        <v>2005.334558653824</v>
       </c>
       <c r="N35" t="n">
-        <v>2814.024577681334</v>
+        <v>2552.113375712606</v>
       </c>
       <c r="O35" t="n">
-        <v>3316.997048560671</v>
+        <v>3055.085846591943</v>
       </c>
       <c r="P35" t="n">
-        <v>3711.771414917849</v>
+        <v>3646.712159243594</v>
       </c>
       <c r="Q35" t="n">
-        <v>4170.249617426837</v>
+        <v>4105.190361752582</v>
       </c>
       <c r="R35" t="n">
-        <v>4229.266683983639</v>
+        <v>4229.266683983637</v>
       </c>
       <c r="S35" t="n">
-        <v>4154.829971355225</v>
+        <v>4154.829971355223</v>
       </c>
       <c r="T35" t="n">
-        <v>3984.706179583938</v>
+        <v>3984.706179583936</v>
       </c>
       <c r="U35" t="n">
-        <v>3767.029658702265</v>
+        <v>3767.029658702264</v>
       </c>
       <c r="V35" t="n">
-        <v>3471.820727203185</v>
+        <v>3471.820727203184</v>
       </c>
       <c r="W35" t="n">
-        <v>3154.906027777562</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X35" t="n">
-        <v>2817.294225360973</v>
+        <v>2817.294225360971</v>
       </c>
       <c r="Y35" t="n">
-        <v>2463.008849229651</v>
+        <v>2463.00884922965</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>959.6170717285977</v>
+        <v>959.6170717285979</v>
       </c>
       <c r="C36" t="n">
-        <v>785.1640424474707</v>
+        <v>785.1640424474709</v>
       </c>
       <c r="D36" t="n">
-        <v>636.2296327862196</v>
+        <v>636.2296327862197</v>
       </c>
       <c r="E36" t="n">
-        <v>476.992177780764</v>
+        <v>476.9921777807642</v>
       </c>
       <c r="F36" t="n">
-        <v>330.4576198076491</v>
+        <v>330.4576198076492</v>
       </c>
       <c r="G36" t="n">
-        <v>194.0945196402677</v>
+        <v>194.0945196402673</v>
       </c>
       <c r="H36" t="n">
-        <v>103.5926252781352</v>
+        <v>103.5926252781348</v>
       </c>
       <c r="I36" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="J36" t="n">
-        <v>178.26260317029</v>
+        <v>178.2626031702901</v>
       </c>
       <c r="K36" t="n">
-        <v>416.5268021506372</v>
+        <v>416.5268021506373</v>
       </c>
       <c r="L36" t="n">
         <v>783.2249624633026</v>
@@ -7053,7 +7053,7 @@
         <v>1797.681564447354</v>
       </c>
       <c r="W36" t="n">
-        <v>1543.444207719152</v>
+        <v>1543.444207719153</v>
       </c>
       <c r="X36" t="n">
         <v>1335.59270751362</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>768.1716476727529</v>
+        <v>582.2589880867704</v>
       </c>
       <c r="C37" t="n">
-        <v>725.6269796944459</v>
+        <v>449.1767610033542</v>
       </c>
       <c r="D37" t="n">
-        <v>611.3642961266008</v>
+        <v>334.9140774355092</v>
       </c>
       <c r="E37" t="n">
-        <v>499.3051583886984</v>
+        <v>334.9140774355092</v>
       </c>
       <c r="F37" t="n">
-        <v>388.2691667352786</v>
+        <v>223.8780857820896</v>
       </c>
       <c r="G37" t="n">
-        <v>256.4202859544882</v>
+        <v>92.02920500129925</v>
       </c>
       <c r="H37" t="n">
-        <v>146.0570550168367</v>
+        <v>92.02920500129925</v>
       </c>
       <c r="I37" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="J37" t="n">
-        <v>164.8484282497934</v>
+        <v>164.8484282497937</v>
       </c>
       <c r="K37" t="n">
-        <v>403.976073321855</v>
+        <v>403.9760733218554</v>
       </c>
       <c r="L37" t="n">
-        <v>755.6763338935364</v>
+        <v>755.6763338935369</v>
       </c>
       <c r="M37" t="n">
-        <v>1134.97384161627</v>
+        <v>1134.973841616271</v>
       </c>
       <c r="N37" t="n">
-        <v>1511.52268044532</v>
+        <v>1511.522680445321</v>
       </c>
       <c r="O37" t="n">
-        <v>1845.992741488919</v>
+        <v>1845.99274148892</v>
       </c>
       <c r="P37" t="n">
-        <v>2113.740704045764</v>
+        <v>2113.740704045765</v>
       </c>
       <c r="Q37" t="n">
-        <v>2226.491462321464</v>
+        <v>2226.491462321465</v>
       </c>
       <c r="R37" t="n">
-        <v>2172.514960923483</v>
+        <v>2172.514960923484</v>
       </c>
       <c r="S37" t="n">
-        <v>2016.6830325948</v>
+        <v>2016.683032594801</v>
       </c>
       <c r="T37" t="n">
-        <v>2016.6830325948</v>
+        <v>1830.770373008817</v>
       </c>
       <c r="U37" t="n">
-        <v>1763.434121564934</v>
+        <v>1577.521461978952</v>
       </c>
       <c r="V37" t="n">
-        <v>1544.603589203538</v>
+        <v>1358.690929617556</v>
       </c>
       <c r="W37" t="n">
-        <v>1291.040375011068</v>
+        <v>1105.127715425086</v>
       </c>
       <c r="X37" t="n">
-        <v>1098.904779957541</v>
+        <v>912.9921203715592</v>
       </c>
       <c r="Y37" t="n">
-        <v>913.966156658502</v>
+        <v>728.0534970725193</v>
       </c>
     </row>
     <row r="38">
@@ -7157,16 +7157,16 @@
         <v>1456.742661151839</v>
       </c>
       <c r="E38" t="n">
-        <v>1106.808364398086</v>
+        <v>1106.808364398085</v>
       </c>
       <c r="F38" t="n">
-        <v>731.6764154529685</v>
+        <v>731.6764154529684</v>
       </c>
       <c r="G38" t="n">
         <v>352.4579211424556</v>
       </c>
       <c r="H38" t="n">
-        <v>90.7282765957134</v>
+        <v>90.72827659571335</v>
       </c>
       <c r="I38" t="n">
         <v>84.58533367967279</v>
@@ -7175,22 +7175,22 @@
         <v>273.4644646386982</v>
       </c>
       <c r="K38" t="n">
-        <v>928.1877967739978</v>
+        <v>849.7061875343538</v>
       </c>
       <c r="L38" t="n">
-        <v>1792.706612427352</v>
+        <v>1300.740400782763</v>
       </c>
       <c r="M38" t="n">
-        <v>2326.238517099277</v>
+        <v>1834.272305454687</v>
       </c>
       <c r="N38" t="n">
-        <v>2873.017334158059</v>
+        <v>2814.024577681334</v>
       </c>
       <c r="O38" t="n">
-        <v>3375.989805037396</v>
+        <v>3316.997048560671</v>
       </c>
       <c r="P38" t="n">
-        <v>3770.764171394575</v>
+        <v>3711.771414917849</v>
       </c>
       <c r="Q38" t="n">
         <v>4170.249617426837</v>
@@ -7205,13 +7205,13 @@
         <v>3984.706179583938</v>
       </c>
       <c r="U38" t="n">
-        <v>3767.029658702265</v>
+        <v>3767.029658702264</v>
       </c>
       <c r="V38" t="n">
-        <v>3471.820727203185</v>
+        <v>3471.820727203184</v>
       </c>
       <c r="W38" t="n">
-        <v>3154.906027777562</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X38" t="n">
         <v>2817.294225360972</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>858.7092067778623</v>
+        <v>728.0534970725193</v>
       </c>
       <c r="C40" t="n">
-        <v>725.626979694446</v>
+        <v>594.971269989103</v>
       </c>
       <c r="D40" t="n">
-        <v>611.3642961266009</v>
+        <v>480.708586421258</v>
       </c>
       <c r="E40" t="n">
-        <v>499.3051583886985</v>
+        <v>368.6494486833556</v>
       </c>
       <c r="F40" t="n">
-        <v>388.2691667352788</v>
+        <v>257.6134570299359</v>
       </c>
       <c r="G40" t="n">
-        <v>256.4202859544883</v>
+        <v>125.7645762491451</v>
       </c>
       <c r="H40" t="n">
-        <v>146.0570550168368</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="I40" t="n">
         <v>84.58533367967279</v>
@@ -7336,7 +7336,7 @@
         <v>403.9760733218553</v>
       </c>
       <c r="L40" t="n">
-        <v>755.6763338935366</v>
+        <v>755.6763338935368</v>
       </c>
       <c r="M40" t="n">
         <v>1134.973841616271</v>
@@ -7345,37 +7345,37 @@
         <v>1511.522680445321</v>
       </c>
       <c r="O40" t="n">
-        <v>1845.992741488919</v>
+        <v>1845.99274148892</v>
       </c>
       <c r="P40" t="n">
-        <v>2113.740704045764</v>
+        <v>2113.740704045765</v>
       </c>
       <c r="Q40" t="n">
         <v>2226.491462321464</v>
       </c>
       <c r="R40" t="n">
-        <v>2172.514960923482</v>
+        <v>2172.514960923483</v>
       </c>
       <c r="S40" t="n">
-        <v>2016.683032594799</v>
+        <v>2016.6830325948</v>
       </c>
       <c r="T40" t="n">
-        <v>1830.770373008816</v>
+        <v>1830.770373008817</v>
       </c>
       <c r="U40" t="n">
-        <v>1577.52146197895</v>
+        <v>1577.521461978951</v>
       </c>
       <c r="V40" t="n">
-        <v>1358.690929617554</v>
+        <v>1358.690929617555</v>
       </c>
       <c r="W40" t="n">
-        <v>1105.127715425084</v>
+        <v>1105.127715425085</v>
       </c>
       <c r="X40" t="n">
-        <v>1004.503715763611</v>
+        <v>912.9921203715587</v>
       </c>
       <c r="Y40" t="n">
-        <v>1004.503715763611</v>
+        <v>728.0534970725193</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2112.26296501002</v>
+        <v>2112.262965010019</v>
       </c>
       <c r="C41" t="n">
-        <v>1779.154403914099</v>
+        <v>1779.154403914098</v>
       </c>
       <c r="D41" t="n">
         <v>1456.742661151839</v>
@@ -7397,13 +7397,13 @@
         <v>1106.808364398085</v>
       </c>
       <c r="F41" t="n">
-        <v>731.6764154529685</v>
+        <v>731.6764154529683</v>
       </c>
       <c r="G41" t="n">
-        <v>352.4579211424556</v>
+        <v>352.4579211424555</v>
       </c>
       <c r="H41" t="n">
-        <v>90.7282765957134</v>
+        <v>90.72827659571337</v>
       </c>
       <c r="I41" t="n">
         <v>84.58533367967279</v>
@@ -7412,25 +7412,25 @@
         <v>273.4644646386982</v>
       </c>
       <c r="K41" t="n">
-        <v>797.2985829156387</v>
+        <v>928.1877967739978</v>
       </c>
       <c r="L41" t="n">
-        <v>1248.332796164048</v>
+        <v>1433.828042871776</v>
       </c>
       <c r="M41" t="n">
-        <v>1781.864700835972</v>
+        <v>2412.378345701604</v>
       </c>
       <c r="N41" t="n">
-        <v>2328.643517894754</v>
+        <v>2959.157162760387</v>
       </c>
       <c r="O41" t="n">
-        <v>3208.608168224209</v>
+        <v>3462.129633639724</v>
       </c>
       <c r="P41" t="n">
-        <v>3921.963255671155</v>
+        <v>3856.903999996902</v>
       </c>
       <c r="Q41" t="n">
-        <v>4170.249617426837</v>
+        <v>4105.190361752584</v>
       </c>
       <c r="R41" t="n">
         <v>4229.266683983639</v>
@@ -7445,16 +7445,16 @@
         <v>3767.029658702265</v>
       </c>
       <c r="V41" t="n">
-        <v>3471.820727203185</v>
+        <v>3471.820727203184</v>
       </c>
       <c r="W41" t="n">
         <v>3154.906027777561</v>
       </c>
       <c r="X41" t="n">
-        <v>2817.294225360972</v>
+        <v>2817.294225360971</v>
       </c>
       <c r="Y41" t="n">
-        <v>2463.008849229651</v>
+        <v>2463.00884922965</v>
       </c>
     </row>
     <row r="42">
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>728.0534970725181</v>
+        <v>582.2589880867698</v>
       </c>
       <c r="C43" t="n">
-        <v>615.2637487567945</v>
+        <v>449.1767610033536</v>
       </c>
       <c r="D43" t="n">
-        <v>501.0010651889494</v>
+        <v>389.9650735355295</v>
       </c>
       <c r="E43" t="n">
-        <v>388.9419274510469</v>
+        <v>277.9059357976271</v>
       </c>
       <c r="F43" t="n">
-        <v>277.9059357976272</v>
+        <v>277.9059357976271</v>
       </c>
       <c r="G43" t="n">
-        <v>146.0570550168368</v>
+        <v>146.0570550168367</v>
       </c>
       <c r="H43" t="n">
-        <v>146.0570550168368</v>
+        <v>146.0570550168367</v>
       </c>
       <c r="I43" t="n">
         <v>84.58533367967279</v>
       </c>
       <c r="J43" t="n">
-        <v>164.8484282497936</v>
+        <v>164.8484282497938</v>
       </c>
       <c r="K43" t="n">
-        <v>403.9760733218553</v>
+        <v>403.9760733218556</v>
       </c>
       <c r="L43" t="n">
-        <v>755.6763338935367</v>
+        <v>755.676333893537</v>
       </c>
       <c r="M43" t="n">
         <v>1134.973841616271</v>
@@ -7585,7 +7585,7 @@
         <v>1845.99274148892</v>
       </c>
       <c r="P43" t="n">
-        <v>2113.740704045764</v>
+        <v>2113.740704045765</v>
       </c>
       <c r="Q43" t="n">
         <v>2226.491462321464</v>
@@ -7597,22 +7597,22 @@
         <v>2016.6830325948</v>
       </c>
       <c r="T43" t="n">
-        <v>1830.770373008816</v>
+        <v>1830.770373008817</v>
       </c>
       <c r="U43" t="n">
         <v>1577.521461978951</v>
       </c>
       <c r="V43" t="n">
-        <v>1358.690929617554</v>
+        <v>1358.690929617555</v>
       </c>
       <c r="W43" t="n">
-        <v>1105.127715425084</v>
+        <v>1105.127715425085</v>
       </c>
       <c r="X43" t="n">
-        <v>912.9921203715576</v>
+        <v>912.9921203715583</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.0534970725181</v>
+        <v>728.0534970725189</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2112.262965010019</v>
       </c>
       <c r="C44" t="n">
-        <v>1779.154403914099</v>
+        <v>1779.154403914098</v>
       </c>
       <c r="D44" t="n">
         <v>1456.742661151839</v>
@@ -7634,49 +7634,49 @@
         <v>1106.808364398085</v>
       </c>
       <c r="F44" t="n">
-        <v>731.6764154529685</v>
+        <v>731.6764154529683</v>
       </c>
       <c r="G44" t="n">
-        <v>352.4579211424557</v>
+        <v>352.4579211424555</v>
       </c>
       <c r="H44" t="n">
         <v>90.72827659571337</v>
       </c>
       <c r="I44" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J44" t="n">
-        <v>440.8701136590512</v>
+        <v>273.4644646386982</v>
       </c>
       <c r="K44" t="n">
-        <v>774.6894873488977</v>
+        <v>607.2838383285448</v>
       </c>
       <c r="L44" t="n">
-        <v>1225.723700597307</v>
+        <v>1445.872985861815</v>
       </c>
       <c r="M44" t="n">
-        <v>1759.255605269231</v>
+        <v>1979.40489053374</v>
       </c>
       <c r="N44" t="n">
-        <v>2640.576441670618</v>
+        <v>2959.157162760387</v>
       </c>
       <c r="O44" t="n">
-        <v>3143.548912549955</v>
+        <v>3462.129633639724</v>
       </c>
       <c r="P44" t="n">
-        <v>3856.903999996901</v>
+        <v>3856.903999996902</v>
       </c>
       <c r="Q44" t="n">
-        <v>4105.190361752583</v>
+        <v>4105.190361752584</v>
       </c>
       <c r="R44" t="n">
-        <v>4229.266683983638</v>
+        <v>4229.266683983639</v>
       </c>
       <c r="S44" t="n">
-        <v>4154.829971355224</v>
+        <v>4154.829971355225</v>
       </c>
       <c r="T44" t="n">
-        <v>3984.706179583937</v>
+        <v>3984.706179583938</v>
       </c>
       <c r="U44" t="n">
         <v>3767.029658702264</v>
@@ -7688,7 +7688,7 @@
         <v>3154.906027777561</v>
       </c>
       <c r="X44" t="n">
-        <v>2817.294225360972</v>
+        <v>2817.294225360971</v>
       </c>
       <c r="Y44" t="n">
         <v>2463.00884922965</v>
@@ -7722,7 +7722,7 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I45" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J45" t="n">
         <v>178.2626031702901</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>582.25898808677</v>
+        <v>582.2589880867699</v>
       </c>
       <c r="C46" t="n">
-        <v>552.0961206193793</v>
+        <v>449.1767610033537</v>
       </c>
       <c r="D46" t="n">
-        <v>437.8334370515344</v>
+        <v>334.9140774355087</v>
       </c>
       <c r="E46" t="n">
-        <v>437.8334370515344</v>
+        <v>222.8549396976063</v>
       </c>
       <c r="F46" t="n">
-        <v>326.7974453981147</v>
+        <v>194.9485646173243</v>
       </c>
       <c r="G46" t="n">
         <v>194.9485646173243</v>
       </c>
       <c r="H46" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="I46" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J46" t="n">
-        <v>164.8484282497936</v>
+        <v>164.8484282497937</v>
       </c>
       <c r="K46" t="n">
-        <v>403.9760733218553</v>
+        <v>403.9760733218554</v>
       </c>
       <c r="L46" t="n">
         <v>755.6763338935368</v>
@@ -7846,10 +7846,10 @@
         <v>1105.127715425085</v>
       </c>
       <c r="X46" t="n">
-        <v>912.9921203715584</v>
+        <v>912.9921203715583</v>
       </c>
       <c r="Y46" t="n">
-        <v>728.0534970725191</v>
+        <v>728.0534970725189</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>62.50551572733634</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>281.5606805307993</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>75.88111353616766</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,28 +8690,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>123.4719563470481</v>
       </c>
       <c r="L11" t="n">
-        <v>29.61882225792044</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>63.0158812040238</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>133.253057640025</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>132.9990175570114</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>79.70465870845362</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,22 +9398,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>219.3344627260154</v>
       </c>
       <c r="L20" t="n">
-        <v>132.9990175570106</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9647,19 +9647,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>185.3870697685868</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9881,22 +9881,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>26.15484791631846</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,25 +10112,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>63.01588120402391</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>170.1140909277306</v>
+        <v>229.1543674071817</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>63.60783555092576</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>198.8403497923968</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,16 +10823,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>244.8710598038476</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>152.7263477541216</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11060,28 +11060,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>191.934085441509</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>55.15760893875671</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,25 +11294,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>391.4696305907694</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>337.9212316591968</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>164.7576090751788</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>200.7491125086903</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23671,7 +23671,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>207.6839418246688</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.56108020884767</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>78.64577401037886</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>97.82114197661406</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>117.13495854486</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>272.3211098256414</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>201.1309166521592</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>185.8756671873956</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,19 +24601,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>61.73922604214093</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>22.86823736419075</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>16.14213605696639</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>29.99323940113322</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>149.9877189674453</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>81.854739414196</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>89.63218351405831</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>110.9385463605233</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>53.48757151538205</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>184.0535329901234</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>144.3365638958915</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>68.49214848449742</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>60.85700412379231</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25612,10 +25612,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>90.59647943813266</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>183.089237066049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,19 +25783,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>144.3365638958915</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>20.08955398001517</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>54.50048613902072</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>109.9256317368855</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>101.8901660198653</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>110.9385463605234</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>82.29832040740625</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>130.5303919729824</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>60.85700412379232</v>
+        <v>60.8570041237923</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>813231.996531599</v>
+        <v>813231.9965315989</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>813231.996531599</v>
+        <v>813231.9965315989</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>813231.9965315989</v>
+        <v>813231.996531599</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26314,22 @@
         <v>636307.3716448202</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448199</v>
       </c>
       <c r="E2" t="n">
-        <v>615476.7696748235</v>
+        <v>615476.7696748239</v>
       </c>
       <c r="F2" t="n">
-        <v>615476.7696748236</v>
+        <v>615476.769674824</v>
       </c>
       <c r="G2" t="n">
         <v>615476.7696748237</v>
       </c>
       <c r="H2" t="n">
-        <v>615476.7696748236</v>
+        <v>615476.7696748242</v>
       </c>
       <c r="I2" t="n">
         <v>615476.7696748235</v>
@@ -26338,22 +26338,22 @@
         <v>615476.7696748239</v>
       </c>
       <c r="K2" t="n">
-        <v>615476.7696748236</v>
+        <v>615476.7696748237</v>
       </c>
       <c r="L2" t="n">
-        <v>615476.7696748241</v>
+        <v>615476.7696748239</v>
       </c>
       <c r="M2" t="n">
-        <v>631216.8173178416</v>
+        <v>631216.817317842</v>
       </c>
       <c r="N2" t="n">
-        <v>631216.8173178418</v>
+        <v>631216.8173178417</v>
       </c>
       <c r="O2" t="n">
-        <v>631216.8173178415</v>
+        <v>631216.8173178412</v>
       </c>
       <c r="P2" t="n">
-        <v>631216.8173178415</v>
+        <v>631216.8173178412</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>507203.1428394259</v>
+        <v>507203.1428394258</v>
       </c>
       <c r="C3" t="n">
-        <v>78665.28217418122</v>
+        <v>78665.28217418137</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>157829.4001410732</v>
       </c>
       <c r="K3" t="n">
-        <v>18289.94367022187</v>
+        <v>18289.9436702219</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26424,34 +26424,34 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>28561.83935289574</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="F4" t="n">
+        <v>28561.83935289575</v>
+      </c>
+      <c r="G4" t="n">
+        <v>28561.83935289579</v>
+      </c>
+      <c r="H4" t="n">
         <v>28561.83935289576</v>
-      </c>
-      <c r="G4" t="n">
-        <v>28561.83935289576</v>
-      </c>
-      <c r="H4" t="n">
-        <v>28561.83935289573</v>
       </c>
       <c r="I4" t="n">
         <v>28561.83935289575</v>
       </c>
       <c r="J4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="K4" t="n">
         <v>28561.83935289575</v>
       </c>
       <c r="L4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="M4" t="n">
-        <v>55718.30868501854</v>
+        <v>55718.30868501858</v>
       </c>
       <c r="N4" t="n">
-        <v>55718.30868501852</v>
+        <v>55718.30868501857</v>
       </c>
       <c r="O4" t="n">
         <v>55718.30868501853</v>
@@ -26470,13 +26470,13 @@
         <v>77204.68871133427</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371364</v>
@@ -26500,7 +26500,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>91026.0498212368</v>
+        <v>91026.04982123678</v>
       </c>
       <c r="N5" t="n">
         <v>91026.0498212368</v>
@@ -26509,7 +26509,7 @@
         <v>91026.0498212368</v>
       </c>
       <c r="P5" t="n">
-        <v>91026.04982123678</v>
+        <v>91026.0498212368</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-180118.23166066</v>
+        <v>-180118.2316606599</v>
       </c>
       <c r="C6" t="n">
-        <v>264860.5959441959</v>
+        <v>264860.5959441957</v>
       </c>
       <c r="D6" t="n">
-        <v>343525.8781183771</v>
+        <v>343525.8781183772</v>
       </c>
       <c r="E6" t="n">
-        <v>-236846.0019251925</v>
+        <v>-236913.197415418</v>
       </c>
       <c r="F6" t="n">
-        <v>490531.4120682143</v>
+        <v>490464.2165779888</v>
       </c>
       <c r="G6" t="n">
-        <v>490531.4120682144</v>
+        <v>490464.2165779886</v>
       </c>
       <c r="H6" t="n">
-        <v>490531.4120682142</v>
+        <v>490464.2165779889</v>
       </c>
       <c r="I6" t="n">
-        <v>490531.4120682142</v>
+        <v>490464.2165779883</v>
       </c>
       <c r="J6" t="n">
-        <v>332702.0119271412</v>
+        <v>332634.8164369154</v>
       </c>
       <c r="K6" t="n">
-        <v>472241.4683979924</v>
+        <v>472174.2729077666</v>
       </c>
       <c r="L6" t="n">
-        <v>490531.4120682147</v>
+        <v>490464.2165779886</v>
       </c>
       <c r="M6" t="n">
-        <v>360623.6676234112</v>
+        <v>360607.2464804215</v>
       </c>
       <c r="N6" t="n">
-        <v>484472.4588115864</v>
+        <v>484456.0376685961</v>
       </c>
       <c r="O6" t="n">
-        <v>484472.4588115861</v>
+        <v>484456.0376685956</v>
       </c>
       <c r="P6" t="n">
-        <v>484472.4588115861</v>
+        <v>484456.0376685956</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="N2" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="O2" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="P2" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688973</v>
+        <v>316.5685789688972</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26753,7 +26753,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26790,7 +26790,7 @@
         <v>603.2219356877024</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26820,7 +26820,7 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1057.31667099591</v>
+        <v>1057.316670995909</v>
       </c>
       <c r="N4" t="n">
         <v>1057.31667099591</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688973</v>
+        <v>316.5685789688972</v>
       </c>
       <c r="C3" t="n">
-        <v>61.17508524818936</v>
+        <v>61.17508524818948</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>603.2219356877024</v>
       </c>
       <c r="C4" t="n">
-        <v>71.0653370668532</v>
+        <v>71.06533706685332</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>603.2219356877024</v>
       </c>
       <c r="K4" t="n">
-        <v>71.0653370668532</v>
+        <v>71.06533706685332</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>383.0293982413541</v>
+        <v>383.0293982413538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>603.2219356877024</v>
       </c>
       <c r="K4" t="n">
-        <v>71.0653370668532</v>
+        <v>71.06533706685332</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>171.8035545337341</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>161.4125322208645</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>333.2160867545988</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27467,13 +27467,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>50.55432364846025</v>
       </c>
       <c r="G3" t="n">
-        <v>66.97951505955199</v>
+        <v>136.6625960688247</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.6591799828218</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27512,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8965846405547</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>114.9062393896969</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>83.9346891924146</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.4201179865476</v>
       </c>
       <c r="H4" t="n">
         <v>157.1516959462661</v>
@@ -27558,7 +27558,7 @@
         <v>138.28311657924</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>52.99928112255616</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.3601878273909</v>
+        <v>38.36018782739091</v>
       </c>
       <c r="R4" t="n">
         <v>151.625388236511</v>
@@ -27588,7 +27588,7 @@
         <v>214.068041219212</v>
       </c>
       <c r="T4" t="n">
-        <v>225.5064544755703</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2878914634775</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>53.14542677928245</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>107.8189279163755</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>11.85718952785675</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>168.5393373498798</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>86.33021766909769</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>118.0357550281381</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>123.9289676594881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>239.1611066505858</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="C35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="D35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="E35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="F35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="G35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="H35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="I35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="T35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="U35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="V35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="W35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="X35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="C37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="D37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="E37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="F37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="G37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="H37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="I37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="J37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="K37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="L37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="M37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="N37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="O37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="P37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="R37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="S37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="T37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="U37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="V37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="W37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="X37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604582</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="C38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="D38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="E38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="F38" t="n">
-        <v>35.49541628604533</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="G38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="H38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="I38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="T38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="U38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="V38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="W38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="X38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="C40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="D40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="E40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="F40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="G40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="H40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="I40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="J40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="K40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="L40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="M40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="N40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="O40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="P40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="R40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="S40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="T40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="U40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="V40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="W40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="X40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="C41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="D41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="E41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="F41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="G41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="H41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="I41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="T41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="U41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="V41" t="n">
-        <v>35.49541628604538</v>
+        <v>35.49541628604493</v>
       </c>
       <c r="W41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="X41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="C43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="D43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="E43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="F43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="G43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="H43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="I43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="J43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="K43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="L43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="M43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="N43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="O43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="P43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="R43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="S43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="T43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="U43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="V43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="W43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="X43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="C44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="D44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="E44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="F44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="G44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="H44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="I44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="T44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="U44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604504</v>
       </c>
       <c r="V44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="W44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="X44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="C46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="D46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="E46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="F46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="G46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="H46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="I46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="J46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="K46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="L46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="M46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="N46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="O46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="P46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="R46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="S46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="T46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="U46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="V46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="W46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="X46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
     </row>
   </sheetData>
@@ -31042,7 +31042,7 @@
         <v>1.272637503392551</v>
       </c>
       <c r="H2" t="n">
-        <v>13.03339883161897</v>
+        <v>13.03339883161896</v>
       </c>
       <c r="I2" t="n">
         <v>49.06335734954136</v>
@@ -31072,16 +31072,16 @@
         <v>137.4305331944824</v>
       </c>
       <c r="R2" t="n">
-        <v>79.9423155724824</v>
+        <v>79.94231557248239</v>
       </c>
       <c r="S2" t="n">
         <v>29.00022710855778</v>
       </c>
       <c r="T2" t="n">
-        <v>5.570970671100894</v>
+        <v>5.570970671100893</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1018110002714041</v>
+        <v>0.101811000271404</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,28 +31118,28 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.68092109438593</v>
+        <v>0.6809210943859298</v>
       </c>
       <c r="H3" t="n">
-        <v>6.576264253674641</v>
+        <v>6.57626425367464</v>
       </c>
       <c r="I3" t="n">
         <v>23.44399381986645</v>
       </c>
       <c r="J3" t="n">
-        <v>64.33211093933035</v>
+        <v>64.33211093933033</v>
       </c>
       <c r="K3" t="n">
-        <v>109.9538242631877</v>
+        <v>109.9538242631876</v>
       </c>
       <c r="L3" t="n">
-        <v>147.8464858665591</v>
+        <v>147.846485866559</v>
       </c>
       <c r="M3" t="n">
         <v>172.529875538049</v>
       </c>
       <c r="N3" t="n">
-        <v>177.096227964874</v>
+        <v>177.0962279648739</v>
       </c>
       <c r="O3" t="n">
         <v>162.0084500313752</v>
@@ -31148,7 +31148,7 @@
         <v>130.0260640674325</v>
       </c>
       <c r="Q3" t="n">
-        <v>86.91898039915837</v>
+        <v>86.91898039915836</v>
       </c>
       <c r="R3" t="n">
         <v>42.27683777248784</v>
@@ -31160,7 +31160,7 @@
         <v>2.744589849739778</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04479744042012699</v>
+        <v>0.04479744042012698</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5708613719111262</v>
+        <v>0.5708613719111261</v>
       </c>
       <c r="H4" t="n">
         <v>5.07547656117347</v>
       </c>
       <c r="I4" t="n">
-        <v>17.16735834801824</v>
+        <v>17.16735834801823</v>
       </c>
       <c r="J4" t="n">
-        <v>40.35989899411662</v>
+        <v>40.35989899411661</v>
       </c>
       <c r="K4" t="n">
-        <v>66.32371211840173</v>
+        <v>66.32371211840172</v>
       </c>
       <c r="L4" t="n">
-        <v>84.8715170566778</v>
+        <v>84.87151705667779</v>
       </c>
       <c r="M4" t="n">
-        <v>89.48511487148679</v>
+        <v>89.48511487148677</v>
       </c>
       <c r="N4" t="n">
-        <v>87.35735884890903</v>
+        <v>87.35735884890902</v>
       </c>
       <c r="O4" t="n">
-        <v>80.68866009521993</v>
+        <v>80.68866009521992</v>
       </c>
       <c r="P4" t="n">
-        <v>69.04308810823291</v>
+        <v>69.04308810823289</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.80185542430349</v>
+        <v>47.80185542430348</v>
       </c>
       <c r="R4" t="n">
-        <v>25.66800314065845</v>
+        <v>25.66800314065844</v>
       </c>
       <c r="S4" t="n">
-        <v>9.948556817760259</v>
+        <v>9.948556817760258</v>
       </c>
       <c r="T4" t="n">
         <v>2.439134952711175</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03113789301333419</v>
+        <v>0.03113789301333418</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32470,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32622,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -33026,13 +33026,13 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837925</v>
@@ -33263,7 +33263,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33515,7 +33515,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -34226,7 +34226,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34457,7 +34457,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
         <v>557.708647897025</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.0642279489511</v>
+        <v>96.06422794895107</v>
       </c>
       <c r="K2" t="n">
         <v>265.9398243483545</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>63.58551961307248</v>
       </c>
       <c r="K3" t="n">
         <v>236.5776223014072</v>
@@ -34787,16 +34787,16 @@
         <v>496.1009053660306</v>
       </c>
       <c r="N3" t="n">
-        <v>525.0968902250942</v>
+        <v>327.31519641234</v>
       </c>
       <c r="O3" t="n">
-        <v>413.2745248636603</v>
+        <v>413.2745248636602</v>
       </c>
       <c r="P3" t="n">
         <v>314.5144252930395</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.81831984930452</v>
+        <v>157.0144940489859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,13 +34857,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>44.05422029251888</v>
+        <v>44.05422029251886</v>
       </c>
       <c r="L4" t="n">
         <v>112.4615423169939</v>
       </c>
       <c r="M4" t="n">
-        <v>129.0689918333274</v>
+        <v>129.0689918333273</v>
       </c>
       <c r="N4" t="n">
         <v>131.4895312281376</v>
@@ -34872,7 +34872,7 @@
         <v>105.2737880092596</v>
       </c>
       <c r="P4" t="n">
-        <v>66.3216473731264</v>
+        <v>66.32164737312638</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>460.6632429024486</v>
       </c>
       <c r="L11" t="n">
-        <v>485.2089366502526</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>400.2071677594242</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>384.0473624437445</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597718</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>323.786018525724</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>632.0064941213649</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597769</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265653</v>
+        <v>556.5257492814159</v>
       </c>
       <c r="L20" t="n">
-        <v>588.5891319493429</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509647</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>323.7860185257249</v>
       </c>
       <c r="K23" t="n">
         <v>661.3366991265652</v>
@@ -36367,19 +36367,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>436.1813745723063</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
@@ -36601,22 +36601,22 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>276.9491527200379</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004592</v>
@@ -36832,25 +36832,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>601.9369970342507</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36911,7 +36911,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7042053200628</v>
+        <v>684.7444817995139</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>615.9096709638372</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>597.6023360117687</v>
       </c>
       <c r="Q35" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.07383289911198</v>
+        <v>81.07383289911205</v>
       </c>
       <c r="K37" t="n">
-        <v>241.5430758303653</v>
+        <v>241.5430758303654</v>
       </c>
       <c r="L37" t="n">
         <v>355.2527884562439</v>
       </c>
       <c r="M37" t="n">
-        <v>383.1287956795296</v>
+        <v>383.1287956795297</v>
       </c>
       <c r="N37" t="n">
-        <v>380.3523624535858</v>
+        <v>380.3523624535859</v>
       </c>
       <c r="O37" t="n">
         <v>337.8485465086856</v>
       </c>
       <c r="P37" t="n">
-        <v>270.4524874311562</v>
+        <v>270.4524874311563</v>
       </c>
       <c r="Q37" t="n">
-        <v>113.8896548239394</v>
+        <v>113.8896548239395</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,16 +37543,16 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>582.0623463592481</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
@@ -37561,7 +37561,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>403.5206525578411</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222478</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597709</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.07383289911198</v>
+        <v>81.07383289911201</v>
       </c>
       <c r="K40" t="n">
-        <v>241.5430758303653</v>
+        <v>241.5430758303654</v>
       </c>
       <c r="L40" t="n">
-        <v>355.2527884562438</v>
+        <v>355.2527884562439</v>
       </c>
       <c r="M40" t="n">
         <v>383.1287956795296</v>
       </c>
       <c r="N40" t="n">
-        <v>380.3523624535858</v>
+        <v>380.3523624535859</v>
       </c>
       <c r="O40" t="n">
         <v>337.8485465086856</v>
@@ -37719,7 +37719,7 @@
         <v>270.4524874311562</v>
       </c>
       <c r="Q40" t="n">
-        <v>113.8896548239394</v>
+        <v>113.8896548239395</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>529.1253719969095</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>510.7477233310889</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.07383289911198</v>
+        <v>81.07383289911201</v>
       </c>
       <c r="K43" t="n">
-        <v>241.5430758303653</v>
+        <v>241.5430758303654</v>
       </c>
       <c r="L43" t="n">
-        <v>355.2527884562438</v>
+        <v>355.2527884562439</v>
       </c>
       <c r="M43" t="n">
         <v>383.1287956795296</v>
       </c>
       <c r="N43" t="n">
-        <v>380.3523624535858</v>
+        <v>380.3523624535859</v>
       </c>
       <c r="O43" t="n">
         <v>337.8485465086856</v>
@@ -37956,7 +37956,7 @@
         <v>270.4524874311562</v>
       </c>
       <c r="Q43" t="n">
-        <v>113.8896548239394</v>
+        <v>113.8896548239395</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,25 +38014,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>847.0597449831016</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>890.2230670721083</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
         <v>250.7943048037195</v>
@@ -38105,7 +38105,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525806</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.07383289911199</v>
+        <v>81.07383289911201</v>
       </c>
       <c r="K46" t="n">
         <v>241.5430758303654</v>
@@ -38184,7 +38184,7 @@
         <v>383.1287956795296</v>
       </c>
       <c r="N46" t="n">
-        <v>380.3523624535858</v>
+        <v>380.3523624535859</v>
       </c>
       <c r="O46" t="n">
         <v>337.8485465086856</v>
@@ -38193,7 +38193,7 @@
         <v>270.4524874311562</v>
       </c>
       <c r="Q46" t="n">
-        <v>113.8896548239394</v>
+        <v>113.8896548239395</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
